--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched_since_2021/ifoCAst_error_tables_filtered_first_since_2021_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched_since_2021/ifoCAst_error_tables_filtered_first_since_2021_GVA.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06454788346334644</v>
+        <v>0.05987764829982773</v>
       </c>
       <c r="C3">
-        <v>0.686889404025538</v>
+        <v>0.6520103082685891</v>
       </c>
       <c r="D3">
-        <v>0.7745590748674015</v>
+        <v>0.7338235967626286</v>
       </c>
       <c r="E3">
-        <v>0.8800903788062914</v>
+        <v>0.8566350429223805</v>
       </c>
       <c r="F3">
-        <v>0.9031665738142226</v>
+        <v>0.8779561813900352</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.235039133601379</v>
+        <v>0.251492217976663</v>
       </c>
       <c r="C4">
-        <v>0.7610243125614116</v>
+        <v>0.7482559981055826</v>
       </c>
       <c r="D4">
-        <v>0.9288084006716909</v>
+        <v>0.8928839205617156</v>
       </c>
       <c r="E4">
-        <v>0.9637470626008107</v>
+        <v>0.9449253518462268</v>
       </c>
       <c r="F4">
-        <v>0.9634120713611228</v>
+        <v>0.9372500616622482</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
